--- a/3_experts_with_kl_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_with_kl_res/SEED_IV/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_with_kl_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15068337-E088-4C70-80BC-DCB1CD8D0E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484CEBB-EA4D-4D0C-9C16-C9FB8101ECB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>people</t>
   </si>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>3E+KL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -142,6 +146,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,7 +498,7 @@
       <c r="C3">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -519,7 +526,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -533,7 +540,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -555,14 +562,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.85170000000000001</v>
       </c>
       <c r="C8">
         <v>0.83789999999999998</v>
       </c>
-      <c r="D8">
-        <v>0.83789999999999998</v>
+      <c r="D8" s="4">
+        <v>0.85170000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -575,7 +582,7 @@
       <c r="C9">
         <v>0.95040000000000002</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
@@ -618,7 +625,7 @@
         <v>0.68089999999999995</v>
       </c>
       <c r="D12" s="4">
-        <v>0.79430000000000001</v>
+        <v>0.95040000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -673,7 +680,7 @@
       <c r="C16">
         <v>0.94310000000000005</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
@@ -729,7 +736,7 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
@@ -743,7 +750,7 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>1</v>
       </c>
     </row>
@@ -771,7 +778,7 @@
       <c r="C23">
         <v>0.97589999999999999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
@@ -799,7 +806,7 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
@@ -813,7 +820,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
@@ -852,11 +859,11 @@
       <c r="B29">
         <v>0.72070000000000001</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>0.90339999999999998</v>
       </c>
-      <c r="D29">
-        <v>0.88970000000000005</v>
+      <c r="D29" s="4">
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -866,11 +873,11 @@
       <c r="B30">
         <v>0.85460000000000003</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>0.89359999999999995</v>
       </c>
-      <c r="D30">
-        <v>0.80500000000000005</v>
+      <c r="D30" s="4">
+        <v>0.8972</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -880,11 +887,11 @@
       <c r="B31">
         <v>0.67479999999999996</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>0.73580000000000001</v>
       </c>
-      <c r="D31">
-        <v>0.72360000000000002</v>
+      <c r="D31" s="4">
+        <v>0.73980000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -905,14 +912,14 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>0.91490000000000005</v>
       </c>
       <c r="C33">
         <v>0.86519999999999997</v>
       </c>
-      <c r="D33">
-        <v>0.86519999999999997</v>
+      <c r="D33" s="4">
+        <v>0.91490000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -939,7 +946,7 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
@@ -1037,7 +1044,7 @@
       <c r="C42">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1086,7 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1105,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B47">
@@ -1109,9 +1116,26 @@
         <f>AVERAGE(C2:C46)</f>
         <v>0.86638888888888888</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <f>AVERAGE(D2:D46)</f>
-        <v>0.89290888888888942</v>
+        <v>0.901115555555556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <f>STDEVPA(B2:B46)</f>
+        <v>0.12290504728005978</v>
+      </c>
+      <c r="C48">
+        <f>STDEVPA(C2:C46)</f>
+        <v>0.10434459411482629</v>
+      </c>
+      <c r="D48">
+        <f>STDEVPA(D2:D46)</f>
+        <v>9.1237443472279328E-2</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_with_kl_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_with_kl_res/SEED_IV/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_with_kl_res\SEED_IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484CEBB-EA4D-4D0C-9C16-C9FB8101ECB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51487BA-2AE9-4DC0-8926-EA4B2A7D903E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,7 +498,7 @@
       <c r="C3">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -582,7 +582,7 @@
       <c r="C9">
         <v>0.95040000000000002</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
         <v>0.99590000000000001</v>
       </c>
       <c r="D13">
-        <v>0.93089999999999995</v>
+        <v>0.96750000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -653,7 +653,7 @@
         <v>0.7379</v>
       </c>
       <c r="D14" s="4">
-        <v>0.78620000000000001</v>
+        <v>0.8034</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -680,7 +680,7 @@
       <c r="C16">
         <v>0.94310000000000005</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="C23">
         <v>0.97589999999999999</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
     </row>
@@ -985,11 +985,11 @@
       <c r="B38">
         <v>0.88280000000000003</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>0.96209999999999996</v>
       </c>
-      <c r="D38">
-        <v>0.88619999999999999</v>
+      <c r="D38" s="4">
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
       <c r="C42">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1116,9 +1116,9 @@
         <f>AVERAGE(C2:C46)</f>
         <v>0.86638888888888888</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <f>AVERAGE(D2:D46)</f>
-        <v>0.901115555555556</v>
+        <v>0.90415111111111157</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D48">
         <f>STDEVPA(D2:D46)</f>
-        <v>9.1237443472279328E-2</v>
+        <v>9.1703131225397347E-2</v>
       </c>
     </row>
   </sheetData>
